--- a/uploads/senders.xlsx
+++ b/uploads/senders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bongu\Desktop\LEAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12541936-8BB0-489A-8394-4968EA78963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01369AE0-93D8-48AB-85F3-E10627604859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC4DE781-E0B3-45E3-8A6A-A3F9F51257B2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>email</t>
   </si>
@@ -51,9 +51,6 @@
     <t>laura.wangdarainfo23@gmail.com</t>
   </si>
   <si>
-    <t>Cheppu</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
@@ -61,6 +58,54 @@
   </si>
   <si>
     <t>rtbb nrig cqgu wchb</t>
+  </si>
+  <si>
+    <t>parker</t>
+  </si>
+  <si>
+    <t>maya.parkerdatainfo@gmail.com</t>
+  </si>
+  <si>
+    <t>aghn ewmv bnvh hxxq</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>hsqa pazg amzh gjcq</t>
+  </si>
+  <si>
+    <t>sameera.ottodatainfo@gmail.com</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>sarah.pedrodatainfo@gmail.com</t>
+  </si>
+  <si>
+    <t>play tojz xuar bssz</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>susan.hinzdatalist@gmail.com</t>
+  </si>
+  <si>
+    <t>stpc zxrv utkh devr</t>
+  </si>
+  <si>
+    <t>Sudam</t>
+  </si>
+  <si>
+    <t>heve ksyp ysuz tuqn</t>
+  </si>
+  <si>
+    <t>teena.wongdatainfo@gmail.com</t>
+  </si>
+  <si>
+    <t>Teena</t>
   </si>
 </sst>
 </file>
@@ -412,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E459E13-5906-44FB-B0D4-A99FF1656FC8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -452,10 +497,65 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
